--- a/KnowledgeGraph/data/income_type.xlsx
+++ b/KnowledgeGraph/data/income_type.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18755" windowHeight="7812"/>
+    <workbookView windowWidth="20976" windowHeight="9684"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>名词</t>
   </si>
@@ -25,31 +25,40 @@
     <t>适用人群</t>
   </si>
   <si>
+    <t>别名</t>
+  </si>
+  <si>
     <t>非保本浮动收益</t>
   </si>
   <si>
-    <t>即可能会亏本，也可能收益更高，即收益不固定浮动。属于风险比较大的理财产品。</t>
-  </si>
-  <si>
-    <t>适合有一定的风险承担能力、追求更高收益的人群。</t>
+    <t>即可能会亏本,也可能收益更高,即收益不固定浮动。属于风险比较大的理财产品。</t>
+  </si>
+  <si>
+    <t>适合有一定的风险承担能力（高风险）、追求更高收益的人群（高收益）。</t>
+  </si>
+  <si>
+    <t>保本,浮动收益,保证本金,波动收益</t>
   </si>
   <si>
     <t>保证收益</t>
   </si>
   <si>
-    <t>就是在一个完整周期内，保证本金绝对安全，并保证约定收益。</t>
-  </si>
-  <si>
-    <t>适合风险承担能力低，对收益追求低的人群</t>
+    <t>就是在一个完整周期内,保证本金绝对安全,并保证约定收益。</t>
+  </si>
+  <si>
+    <t>适合风险承担能力低（低风险）,对收益追求低的人群（低收益）。</t>
+  </si>
+  <si>
+    <t>保证本金,保本,固定收益</t>
   </si>
   <si>
     <t>保本浮动收益</t>
   </si>
   <si>
-    <t>首先保证本金安全，然后收益不确定，可多可少，即浮动不变的。</t>
-  </si>
-  <si>
-    <t>适合风险承受能力不高，在保本前提下追求收益的人群。</t>
+    <t>首先保证本金安全,然后收益不确定,可多可少,即浮动不变的。</t>
+  </si>
+  <si>
+    <t>适合风险承受能力不高（低风险）,在保本前提下追求收益的人群（低收益）。</t>
   </si>
 </sst>
 </file>
@@ -57,12 +66,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,22 +81,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -101,6 +109,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -109,8 +138,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,44 +185,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,48 +209,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,187 +233,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,11 +429,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -441,24 +441,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,6 +456,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,17 +514,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,10 +532,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -542,133 +544,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -676,7 +678,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -998,15 +1000,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1016,38 +1018,50 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
